--- a/3_intensity/synthetic/input/intensity_example_sentences.xlsx
+++ b/3_intensity/synthetic/input/intensity_example_sentences.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmerx/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8527fed3e781c182/COMP80004_PhDResearch/RESEARCH/PROJECTS/3_evaluation^Mvalidation - ACL 2025/ICL/3_intensity/synthetic/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A27217C-D8F2-E147-A19D-DFF5350F43D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{1A27217C-D8F2-E147-A19D-DFF5350F43D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4023E451-5175-4BCD-A2C5-2772F3460E3C}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="840" windowWidth="27640" windowHeight="16940" xr2:uid="{56DC9B05-F223-784B-BB17-0833FFAD395C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56DC9B05-F223-784B-BB17-0833FFAD395C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="academic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,18 +36,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>baseline</t>
   </si>
   <si>
-    <t>In a 24-yr-old female patient with a 12-yr history of kleptomania, it appeared that the behavior was maintained because it reduced anxiety in relevant situations.</t>
-  </si>
-  <si>
-    <t>more intense</t>
-  </si>
-  <si>
-    <t>less intense</t>
+    <t>target</t>
+  </si>
+  <si>
+    <t>high_intensity</t>
+  </si>
+  <si>
+    <t>low_intensity</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>mental_health</t>
+  </si>
+  <si>
+    <t>trauma</t>
+  </si>
+  <si>
+    <t>The study examined the psychological consequences of abuse in childhood.</t>
+  </si>
+  <si>
+    <t>The study highlighted how abuse led to severe and enduring psychological scars in childhood.</t>
+  </si>
+  <si>
+    <t>The study explored how abuse caused minor and transient emotional disturbances in childhood.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of abuse in familial contexts.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of severe and repeated abuse within familial contexts.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of mild and isolated incidents of abuse in familial contexts.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of abuse in triggering maladaptive behaviors.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of abuse in triggering destructive and life-threatening behaviors.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of abuse in causing mildly maladaptive or temporary behaviors.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of abuse in vulnerable populations.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of extreme and systemic abuse in vulnerable populations.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of occasional and mild abuse in vulnerable populations.</t>
+  </si>
+  <si>
+    <t>The investigation highlighted the connection between abuse and mental health outcomes.</t>
+  </si>
+  <si>
+    <t>The investigation highlighted the catastrophic impact of abuse on mental health outcomes.</t>
+  </si>
+  <si>
+    <t>The investigation highlighted the moderate and manageable impact of abuse on mental health outcomes.</t>
+  </si>
+  <si>
+    <t>The study examined the psychological manifestations of anxiety in adolescents.</t>
+  </si>
+  <si>
+    <t>The study highlighted how anxiety resulted in overwhelming panic attacks and persistent distress in adolescents.</t>
+  </si>
+  <si>
+    <t>The study explored how anxiety manifested as occasional unease or mild nervousness in adolescents.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of anxiety in high-stress occupations.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of debilitating anxiety that impaired daily functioning in high-stress occupations.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of manageable anxiety that caused occasional discomfort in high-stress occupations.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of anxiety in influencing decision-making.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of anxiety in severely impairing critical decision-making processes.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of anxiety in slightly affecting non-critical decisions.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of anxiety in individuals with chronic illness.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of acute and pervasive anxiety in individuals with chronic illness.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of mild and intermittent anxiety in individuals with chronic illness.</t>
+  </si>
+  <si>
+    <t>The investigation focused on the impact of anxiety on social relationships.</t>
+  </si>
+  <si>
+    <t>The investigation focused on the devastating effects of anxiety in isolating individuals from social networks.</t>
+  </si>
+  <si>
+    <t>The investigation focused on the minor effects of anxiety in occasionally straining social relationships.</t>
+  </si>
+  <si>
+    <t>The study examined the psychological factors contributing to depression.</t>
+  </si>
+  <si>
+    <t>The study highlighted how depression led to profound despair and complete loss of hope.</t>
+  </si>
+  <si>
+    <t>The study explored how depression manifested as mild sadness or temporary disappointment.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of depression in the elderly.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of severe and treatment-resistant depression in the elderly.</t>
+  </si>
+  <si>
+    <t>The research analyzed the prevalence of mild and episodic depression in the elderly.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of depression in workplace absenteeism.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of depression in causing extended and debilitating absenteeism.</t>
+  </si>
+  <si>
+    <t>The article discussed the role of depression in leading to occasional and manageable absenteeism.</t>
+  </si>
+  <si>
+    <t>The findings emphasized the relationship between depression and suicidal ideation.</t>
+  </si>
+  <si>
+    <t>The findings emphasized the strong association between depression and severe suicidal ideation.</t>
+  </si>
+  <si>
+    <t>The findings emphasized the weaker association between depression and fleeting thoughts of self-doubt.</t>
+  </si>
+  <si>
+    <t>The investigation revealed how depression affected cognitive functioning.</t>
+  </si>
+  <si>
+    <t>The investigation revealed how depression severely impaired cognitive functioning.</t>
+  </si>
+  <si>
+    <t>The investigation revealed how depression caused only slight lapses in cognitive functioning.</t>
+  </si>
+  <si>
+    <t>The study examined the factors influencing mental health outcomes in adolescents.</t>
+  </si>
+  <si>
+    <t>The study highlighted how societal pressures severely deteriorated mental health outcomes in adolescents.</t>
+  </si>
+  <si>
+    <t>The study explored how societal pressures mildly influenced mental health outcomes in adolescents.</t>
+  </si>
+  <si>
+    <t>The research analyzed the importance of mental health in public policy.</t>
+  </si>
+  <si>
+    <t>The research analyzed the critical importance of mental health in addressing national crises.</t>
+  </si>
+  <si>
+    <t>The research analyzed the modest importance of mental health in supporting general well-being.</t>
+  </si>
+  <si>
+    <t>The article discussed the impact of work-life balance on mental health.</t>
+  </si>
+  <si>
+    <t>The article discussed the devastating impact of work-life imbalance on mental health.</t>
+  </si>
+  <si>
+    <t>The article discussed the minimal impact of work-life imbalance on mental health.</t>
+  </si>
+  <si>
+    <t>The findings revealed trends in mental health diagnoses over decades.</t>
+  </si>
+  <si>
+    <t>The findings revealed alarming trends in mental health crises over decades.</t>
+  </si>
+  <si>
+    <t>The findings revealed mild and predictable trends in mental health fluctuations over decades.</t>
+  </si>
+  <si>
+    <t>The investigation highlighted the role of community support in mental health.</t>
+  </si>
+  <si>
+    <t>The investigation highlighted the essential role of community support in preventing severe mental health decline.</t>
+  </si>
+  <si>
+    <t>The investigation highlighted the optional role of community support in enhancing mental health resilience.</t>
+  </si>
+  <si>
+    <t>mental_illness</t>
+  </si>
+  <si>
+    <t>The study examined the prevalence of mental illness in urban populations.</t>
+  </si>
+  <si>
+    <t>The study highlighted the staggering prevalence of severe mental illness in urban populations.</t>
+  </si>
+  <si>
+    <t>The study explored the relatively low prevalence of mild mental illness in urban populations.</t>
+  </si>
+  <si>
+    <t>The research analyzed the treatment of mental illness in clinical settings.</t>
+  </si>
+  <si>
+    <t>The research analyzed the treatment of severe and chronic mental illness in clinical settings.</t>
+  </si>
+  <si>
+    <t>The research analyzed the treatment of mild and short-term mental illness in clinical settings.</t>
+  </si>
+  <si>
+    <t>The article discussed the stigma surrounding mental illness in society.</t>
+  </si>
+  <si>
+    <t>The article discussed the pervasive stigma surrounding severe mental illness in society.</t>
+  </si>
+  <si>
+    <t>The article discussed the occasional stigma associated with mild mental illness in society.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of mental illness among marginalized groups.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of extreme and untreated mental illness among marginalized groups.</t>
+  </si>
+  <si>
+    <t>The findings revealed patterns of manageable and partially treated mental illness among marginalized groups.</t>
+  </si>
+  <si>
+    <t>The investigation focused on mental illness and its impact on family dynamics.</t>
+  </si>
+  <si>
+    <t>The investigation focused on the devastating impact of mental illness in disrupting family dynamics.</t>
+  </si>
+  <si>
+    <t>The investigation focused on the minor impact of mental illness in occasionally straining family dynamics.</t>
+  </si>
+  <si>
+    <t>The study examined the psychological effects of trauma in adolescents.</t>
+  </si>
+  <si>
+    <t>The study highlighted how trauma often leads to profound and life-altering psychological devastation in adolescents.</t>
+  </si>
+  <si>
+    <t>The study explored how trauma may result in mild psychological discomfort or temporary stress in adolescents.</t>
+  </si>
+  <si>
+    <t>The research analyzed the role of trauma in shaping coping mechanisms.</t>
+  </si>
+  <si>
+    <t>The research analyzed how severe trauma shattered individuals’ capacity to cope.</t>
+  </si>
+  <si>
+    <t>The research analyzed how minor trauma slightly disrupted individuals’ capacity to cope.</t>
+  </si>
+  <si>
+    <t>The article discussed the prevalence of trauma among healthcare workers.</t>
+  </si>
+  <si>
+    <t>The article discussed the overwhelming and paralyzing prevalence of trauma among healthcare workers.</t>
+  </si>
+  <si>
+    <t>The article discussed the mild and manageable prevalence of trauma among healthcare workers.</t>
+  </si>
+  <si>
+    <t>The investigation focused on the long-term effects of trauma on memory.</t>
+  </si>
+  <si>
+    <t>The investigation focused on the debilitating and irreversible effects of trauma on memory.</t>
+  </si>
+  <si>
+    <t>The investigation focused on the transient and minimal effects of trauma on memory.</t>
+  </si>
+  <si>
+    <t>The findings emphasized the relationship between trauma and stress-related disorders.</t>
+  </si>
+  <si>
+    <t>The findings emphasized the catastrophic impact of trauma in precipitating severe stress-related disorders.</t>
+  </si>
+  <si>
+    <t>The findings emphasized the limited impact of trauma in causing mild stress-related disorders.</t>
   </si>
 </sst>
 </file>
@@ -65,17 +353,23 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,11 +386,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,35 +726,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A116D2C-4E8E-B243-8C51-FE7F8E924E27}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="48.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="48.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/3_intensity/synthetic/input/intensity_example_sentences.xlsx
+++ b/3_intensity/synthetic/input/intensity_example_sentences.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8527fed3e781c182/COMP80004_PhDResearch/RESEARCH/PROJECTS/3_evaluation^Mvalidation - ACL 2025/ICL/3_intensity/synthetic/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC10489769D84DE65ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01FDA788-6937-4E0F-85B5-FB6330AE4E3C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,308 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>high_intensity</t>
+  </si>
+  <si>
+    <t>low_intensity</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>Clinically, however, individual questions that use broad labeling terms are more likely to identify women as having a history of abuse.</t>
+  </si>
+  <si>
+    <t>Clinically, however, individual questions that use extreme labeling terms are more likely to reveal women as having a severe history of abuse.</t>
+  </si>
+  <si>
+    <t>Clinically, however, individual questions that use broad labeling terms are more likely to identify women as having a mild history of abuse.</t>
+  </si>
+  <si>
+    <t>Most care workers said that they would be willing to report abuse anonymously.</t>
+  </si>
+  <si>
+    <t>Most care workers said that they would be willing to report trivial abuse anonymously.</t>
+  </si>
+  <si>
+    <t>There is greater emphasis on recognizing that older people may be subjected to abuse and neglect by family members and the community as well.</t>
+  </si>
+  <si>
+    <t>There is some emphasis on recognizing that older people may experience weak abuse by family members and the community as well.</t>
+  </si>
+  <si>
+    <t>Education on financial abuse for both elders and their adult children and establishment of income support programs are urgently needed.</t>
+  </si>
+  <si>
+    <t>Education on ordinary financial abuse for both elders and their adult children and urgent establishment of income support programs are desperately needed.</t>
+  </si>
+  <si>
+    <t>Education on financial abuse for both elders and their adult children and establishment of income support programs will occur.</t>
+  </si>
+  <si>
+    <t>There was no association between physical abuse and depressive symptoms through either self-compassion or gratitude.</t>
+  </si>
+  <si>
+    <t>There was no association between frightening physical abuse and cold symptoms through either emotional contagion or extreme gratitude.</t>
+  </si>
+  <si>
+    <t>There was no association between mild physical abuse and state of mind through either complacency or gratitude.</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>The spread of anxiety as seen in curves of generalization seems greater at the unconscious than at the conscious level.</t>
+  </si>
+  <si>
+    <t>The uncontrollable spread of intense anxiety as seen in spikes of generalization seems more vivid at the unconscious than at the conscious level.</t>
+  </si>
+  <si>
+    <t>The spread of mild anxiety as seen in curves of generalization seems greater at the unconscious than at the conscious level.</t>
+  </si>
+  <si>
+    <t>These findings suggest that two important factors to be considered by researchers, educators, and mental_health professionals are adults' perceptions of their fathers' level of acceptance-rejection and the amount of anxiety they experience in their relationship with God.</t>
+  </si>
+  <si>
+    <t>These findings cry out that two powerful factors to be considered by researchers, educators, and mental_health professionals are adults' perceptions of their fathers' extreme level of rejection and the intense amount of anxiety they experience in their relationship with God.</t>
+  </si>
+  <si>
+    <t>These findings suggest that two important factors to be considered by researchers, educators, and other professionals are adults' perceptions of their fathers' level of acceptance and the amount of mild anxiety they experience in their relationship with God.</t>
+  </si>
+  <si>
+    <t>Self-compassion might be an alternative strategy for cognitive reappraisal in the management of shame-proneness and social anxiety.</t>
+  </si>
+  <si>
+    <t>Emotion exaggeration might be an alternative strategy for overcoming upset in the management of shame and extreme social anxiety.</t>
+  </si>
+  <si>
+    <t>Meditation might be an alternative strategy for cognitive reappraisal in the management of boredom and mild social anxiety.</t>
+  </si>
+  <si>
+    <t>The chronic anxiety level of the subject may be related to the ease of acquisition and spread of new anxiety responses.</t>
+  </si>
+  <si>
+    <t>The intense anxiety level of the subject may be related to the ease of acquisition and catastrophic spread of extreme anxiety responses.</t>
+  </si>
+  <si>
+    <t>The mild anxiety level of the subject may be related to the ease of acquisition and generalization of new responses.</t>
+  </si>
+  <si>
+    <t>Results indicated that greater attachment anxiety and avoidance were linked to lower levels of life satisfaction in both gay men and lesbians.</t>
+  </si>
+  <si>
+    <t>Results cried out that extreme attachment anxiety and avoidance were linked to desperate levels of life misery in both gay men and lesbians.</t>
+  </si>
+  <si>
+    <t>Results indicated that  attachment anxiety and peacefulness were linked to lower levels of life satisfaction in both gay men and lesbians.</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>A combined medical and psychiatric treatment of a depression consequent to a colostomy and an organic impotence following rectal resection for cancer in a 33-year-old man has been described.</t>
+  </si>
+  <si>
+    <t>A combined medical and psychiatric treatment of an intense depression consequent to a colostomy and a severe organic impotence following surgical rectal tissue destruction for cancer in a 33-year-old man has been described.</t>
+  </si>
+  <si>
+    <t>A combined medical and psychiatric treatment of a mild depression consequent to a colostomy and an organic impotence following rectal resection for cancer in a 33-year-old man has been described.</t>
+  </si>
+  <si>
+    <t>A 35-year-old woman had a history of increasing irritability and liability to attacks of depression related to a complete inability to have coital orgasms.</t>
+  </si>
+  <si>
+    <t>A 35-year-old woman had a fearsome history of crescendoing irritability and liability to severe attacks of depression related to a horrendous inability to have coital orgasms.</t>
+  </si>
+  <si>
+    <t>A 35-year-old woman had a history of sleepiness and liability to periods of mild depression related to an inability to have coital orgasms.</t>
+  </si>
+  <si>
+    <t>During acute asthma these appear to be radically altered into sadness and longing, and subjected to generalized inhibition similar to that seen in states of depression.</t>
+  </si>
+  <si>
+    <t>During asthma these appear to be altered into boredom and tiredness, and subjected to generalized inhibition similar to that seen in states of low-level depression.</t>
+  </si>
+  <si>
+    <t>Differences in response in the same individual seem related to mood and attitude as well as to transient stress, with the response being lower on days of depression.</t>
+  </si>
+  <si>
+    <t>Scary differences in response in the same individual seem related to intense mood and attitude as well as to sudden stress, with the emotional response being more intense on days of destructive depression.</t>
+  </si>
+  <si>
+    <t>Predictable differences in response in the same individual seem related to mood, attitude and life experiences, with the subdued response being mild on days of everyday depression.</t>
+  </si>
+  <si>
+    <t>The depression was treated by the introduction of behaviors incompatible with the depression.</t>
+  </si>
+  <si>
+    <t>The intense depression was treated by the shocking introduction of uncontrollable behaviors incompatible with the severe depression.</t>
+  </si>
+  <si>
+    <t>The mild depression was treated by the introduction of behaviors incompatible with it.</t>
+  </si>
+  <si>
+    <t>mental_health</t>
+  </si>
+  <si>
+    <t>Community mental_health espouses an innovative conception for psychological services in the university community.</t>
+  </si>
+  <si>
+    <t>Community mental_health fights for a divisive conception for psychological services in the overwhelmed university community.</t>
+  </si>
+  <si>
+    <t>Community mental_health espouses a dull conception for services in the university community.</t>
+  </si>
+  <si>
+    <t>We also opine that if restraints are misused by mental_health or child welfare treatment settings, then their misuse may be considered a subject of a patient maltreatment, abuse, criminal or civil action.</t>
+  </si>
+  <si>
+    <t>We also exclaim that if harsh restraints are abused by mental_health or child welfare treatment settings, then their damaging misuse may be criticized as a subject of extreme patient maltreatment, abuse, criminal or civil action.</t>
+  </si>
+  <si>
+    <t>We also state that if restraints are used by mental_health or child welfare treatment settings, then they may be considered a subject of a discussion.</t>
+  </si>
+  <si>
+    <t>This research is a secondary data analysis of the impact of adolescents' mental/substance-use disorders and dual diagnosis on their utilization of drug treatment and mental_health services.</t>
+  </si>
+  <si>
+    <t>This research is an intense data analysis of the terrible impact of adolescents' mental/substance abuse disorders and severe compounding problems on their abuse of drug treatment and mental_health services.</t>
+  </si>
+  <si>
+    <t>This research is a data analysis of the impact of adolescents' experiences on their utilization of normal treatment and mental_health services.</t>
+  </si>
+  <si>
+    <t>The findings emphasize the need for family-based treatment for CP that addresses parent behaviors and adolescent mental_health.</t>
+  </si>
+  <si>
+    <t>The findings make a heartfelt plea for the desperate need for family-based treatment for CP that challenges destructive parent behaviors and adolescent mental_health diseases.</t>
+  </si>
+  <si>
+    <t>The findings summarize the need for family-based treatment for CP that addresses ordinary parent behaviors and mild adolescent mental_health.</t>
+  </si>
+  <si>
+    <t>Our findings suggest that maternal mental_health influences child sleep behavior at 18 months after birth, and not vice versa.</t>
+  </si>
+  <si>
+    <t>Our exciting findings suggest that damaged maternal mental_health destructively influences child sleep behavior at 18 months after birth, and not vice versa.</t>
+  </si>
+  <si>
+    <t>Our findings suggest that ordinary maternal mental_health influences child normal sleep behavior at 18 months after birth, and not vice versa.</t>
+  </si>
+  <si>
+    <t>mental_illness</t>
+  </si>
+  <si>
+    <t>Problems of definition and classification in psychiatry and the impact of mental_illness on the individual and the community pose unique problems for psychiatric register studies.</t>
+  </si>
+  <si>
+    <t>Horrible problems of definition and classification in psychiatry and the harsh impact of severe mental_illness on the individual and the community pose frightening problems for psychiatric register studies.</t>
+  </si>
+  <si>
+    <t>Issues of definition and classification in psychiatry and the impact of mild mental_illness on the individual and the community arise in register studies.</t>
+  </si>
+  <si>
+    <t>In parents and collateral relatives of the autistic children, 3.2% had a serious mental_illness, and 4.8% of siblings were markedly abnormal.</t>
+  </si>
+  <si>
+    <t>In desperate parents and relatives of the severely autistic children, 3.2% had a serious mental_illness, and 4.8% of siblings were extremely abnormal.</t>
+  </si>
+  <si>
+    <t>In parents and relatives of the mildly autistic children, 3.2% had a ordinary mental_illness, and 4.8% of siblings were normal.</t>
+  </si>
+  <si>
+    <t>Consistent with genetic essentialism, genetic attributions increased the perceived seriousness and persistence of the mental_illness and the belief that siblings and children would develop the same problem.</t>
+  </si>
+  <si>
+    <t>Consistent with the horrors of genetic essentialism, genetic attributions exaggerated the perceived severity and uncontrollability of the severe mental_illness and the destructive belief that siblings and children would develop the same extreme problem.</t>
+  </si>
+  <si>
+    <t>Consistent with genetic essentialism, genetic attributions influenced views about the mental_illness and the belief that siblings and children would develop it.</t>
+  </si>
+  <si>
+    <t>The target population was urban, homeless, HIV+ individuals with substance dependence and/or mental_illness diagnoses.</t>
+  </si>
+  <si>
+    <t>The completely overwhelmed target population was urban, homeless, HIV+ individuals with severe substance abuse and/or unmanageable mental_illness diagnoses.</t>
+  </si>
+  <si>
+    <t>The target population was urban, ambulatory, healthy individuals with mild mental_illness diagnoses.</t>
+  </si>
+  <si>
+    <t>Doctors, including general practitioners, experience higher levels of mental_illness than the general population.</t>
+  </si>
+  <si>
+    <t>trauma</t>
+  </si>
+  <si>
+    <t>They tend to be more liberal in their attitudes toward abortion than women in general; however, women who experienced a greater degree of psychic trauma tended to be more conservative in their attitudes.</t>
+  </si>
+  <si>
+    <t>They tend to be more extremely callous in their attitudes toward the horrors of abortion than women in general; however, women who suffered a greater degree of violent psychic trauma tended to be more fearful in their attitudes.</t>
+  </si>
+  <si>
+    <t>They tend to be more accepting in their attitudes toward children than women in general; however, women who experienced mild psychic trauma tended to be more conservative in their attitudes.</t>
+  </si>
+  <si>
+    <t>The trauma was overwhelming.</t>
+  </si>
+  <si>
+    <t>The intense trauma was completely overwhelming.</t>
+  </si>
+  <si>
+    <t>The mild trauma was unproblematic.</t>
+  </si>
+  <si>
+    <t>The choice of defensive style was found related to at least three factors: an early history of trauma, especially separation, parental encouragement of toughness, and essentially a counterphobic family style.</t>
+  </si>
+  <si>
+    <t>The choice of emotional overreaction was found related to at least three factors: an early history of extreme trauma, especially harsh abandonment, parental punishment, and essentially an emotionally destructive family style.</t>
+  </si>
+  <si>
+    <t>The choice of coping style was found related to at least three factors: an early history of mild trauma, especially independence, parental encouragement, and essentially a dull and normal family style.</t>
+  </si>
+  <si>
+    <t>It is an attempt to bring the trauma arising from the external world into the internal world and thus to create an illusion of mastery and control.</t>
+  </si>
+  <si>
+    <t>It is a desperate attempt to bring the unbearable trauma threatening from the external world into the internal world and thus to create a poisonous illusion of mastery and control.</t>
+  </si>
+  <si>
+    <t>It is an attempt to bring the mild trauma arising from the external world into the internal world and thus to create a sense of peace and tranquillity.</t>
+  </si>
+  <si>
+    <t>The international standard for setting ski bindings is based on the measurement of the tibia proximal width because of the propensity of this bone to suffer trauma as the ski and skier attempt to go in different directions.</t>
+  </si>
+  <si>
+    <t>The disgraceful international standard for setting ski bindings is based on the measurement of the tibia proximal width because of the scary propensity of this bone to suffer severe trauma as the ski and skier attempt to go in different directions.</t>
+  </si>
+  <si>
+    <t>The international standard for setting ski bindings is based on the measurement of the tibia proximal width because of the propensity of this bone to experience mild trauma as the ski and skier attempt to go in different directions.</t>
+  </si>
+  <si>
+    <t>Most care workers cried that they would be delighted to report extreme instances of abuse anonymously.</t>
+  </si>
+  <si>
+    <t>There is a significant emphasis on recognizing that older people may be subjected to severe abuse and appalling neglect by family members and the community as well.</t>
+  </si>
+  <si>
+    <t>During severe, life-threatening asthma episodes these appear to be radically altered into intense misery, and subjected to generalized inhibition similar to that seen in states of extreme depression.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +333,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +373,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +661,454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="47.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>